--- a/LABORATORIO/LABORATORIO 1/mediciones.xlsx
+++ b/LABORATORIO/LABORATORIO 1/mediciones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\OneDrive\Documentos\ME1\LABORATORIO\LABORATORIO 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\ME1\ME1\LABORATORIO\LABORATORIO 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B572B67F-5326-43B9-8748-7C1BF90B0565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CFD3AC-FF68-4149-9727-68A0A5ED2EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" xr2:uid="{D6DC2A8B-5565-4027-8422-B352F38ECBBA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D6DC2A8B-5565-4027-8422-B352F38ECBBA}"/>
   </bookViews>
   <sheets>
     <sheet name="TP3" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Trabajo 3</t>
   </si>
@@ -94,9 +92,6 @@
     <t>2V</t>
   </si>
   <si>
-    <t>20m</t>
-  </si>
-  <si>
     <t>1V</t>
   </si>
   <si>
@@ -128,15 +123,19 @@
   </si>
   <si>
     <t>600V</t>
+  </si>
+  <si>
+    <t>CORRIENTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -460,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -562,6 +561,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -631,7 +631,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -946,56 +946,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8AE5F3-0D3C-4C3D-96B9-777AA788C76A}">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:K13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="21.44140625" customWidth="1"/>
+    <col min="1" max="10" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="F3" s="55" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="F3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="14" t="s">
         <v>10</v>
@@ -1038,18 +1038,21 @@
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="16"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>0.10352</v>
       </c>
       <c r="B6" s="18">
         <v>103.9</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="49" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="15"/>
@@ -1059,26 +1062,30 @@
       <c r="G6" s="4">
         <v>114</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="50" t="s">
         <v>15</v>
       </c>
       <c r="K6">
         <f>AVERAGE(A6:A10)</f>
         <v>0.10351999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P6" s="61">
+        <f>AVERAGE(F6:F10)</f>
+        <v>9.6000000000000016E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>0.10351</v>
       </c>
       <c r="B7" s="18">
         <v>103.9</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="15"/>
       <c r="F7" s="34">
         <v>1E-4</v>
@@ -1086,22 +1093,26 @@
       <c r="G7" s="4">
         <v>115</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="50"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="51"/>
       <c r="K7">
         <f>AVERAGE(A13:A17)</f>
         <v>0.102474</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P7" s="61">
+        <f>AVERAGE(F13:F17)</f>
+        <v>9.6000000000000016E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>0.10349999999999999</v>
       </c>
       <c r="B8" s="18">
         <v>103.9</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
       <c r="E8" s="15"/>
       <c r="F8" s="34">
         <v>1E-4</v>
@@ -1109,18 +1120,19 @@
       <c r="G8" s="4">
         <v>115</v>
       </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="50"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H8" s="49"/>
+      <c r="I8" s="51"/>
+      <c r="P8" s="61"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>0.10352</v>
       </c>
       <c r="B9" s="18">
         <v>103.8</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
       <c r="E9" s="15"/>
       <c r="F9" s="4">
         <v>9.0000000000000006E-5</v>
@@ -1128,22 +1140,26 @@
       <c r="G9" s="4">
         <v>114</v>
       </c>
-      <c r="H9" s="48"/>
-      <c r="I9" s="50"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="51"/>
       <c r="K9">
         <f>AVERAGE(A19:A23)</f>
         <v>1.0366759999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P9" s="61">
+        <f>AVERAGE(F19:F23)</f>
+        <v>1.4860000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>0.10355</v>
       </c>
       <c r="B10" s="18">
         <v>103.8</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="15"/>
       <c r="F10" s="4">
         <v>9.0000000000000006E-5</v>
@@ -1151,54 +1167,63 @@
       <c r="G10" s="4">
         <v>115</v>
       </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="50"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="51"/>
       <c r="K10">
         <f>AVERAGE(A26:A30)</f>
         <v>1.0296380000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P10" s="61">
+        <f>AVERAGE(F25:F29)</f>
+        <v>1.4360000000000002E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="48"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="15"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="50"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I11" s="51"/>
+      <c r="P11" s="61"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="48"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="15"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="50"/>
-      <c r="K12" s="60">
+      <c r="I12" s="51"/>
+      <c r="K12" s="37">
         <f>AVERAGE(A32:A41)</f>
         <v>9.0542899999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P12" s="61">
+        <f>AVERAGE(F32:F36)</f>
+        <v>6.7360000000000007E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>0.10206</v>
       </c>
       <c r="B13" s="18">
         <v>0.10199999999999999</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="48"/>
+      <c r="D13" s="49"/>
       <c r="E13" s="15"/>
       <c r="F13" s="34">
         <v>1E-4</v>
@@ -1206,24 +1231,28 @@
       <c r="G13" s="4">
         <v>0.12</v>
       </c>
-      <c r="H13" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="50"/>
+      <c r="H13" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="51"/>
       <c r="K13">
         <f>AVERAGE(A43:A52)</f>
         <v>9.0233300000000014</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P13" s="61">
+        <f>AVERAGE(F38:F42)</f>
+        <v>6.7540000000000005E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>0.10259</v>
       </c>
       <c r="B14" s="18">
         <v>0.10199999999999999</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
       <c r="E14" s="15"/>
       <c r="F14" s="34">
         <v>1E-4</v>
@@ -1231,18 +1260,19 @@
       <c r="G14" s="4">
         <v>0.12</v>
       </c>
-      <c r="H14" s="48"/>
-      <c r="I14" s="50"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H14" s="49"/>
+      <c r="I14" s="51"/>
+      <c r="P14" s="61"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>0.10258</v>
       </c>
       <c r="B15" s="18">
         <v>0.10199999999999999</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
       <c r="E15" s="15"/>
       <c r="F15" s="34">
         <v>1E-4</v>
@@ -1250,18 +1280,23 @@
       <c r="G15" s="4">
         <v>0.11</v>
       </c>
-      <c r="H15" s="48"/>
-      <c r="I15" s="50"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H15" s="49"/>
+      <c r="I15" s="51"/>
+      <c r="K15">
+        <f>AVERAGE(A54:A58)</f>
+        <v>24.003820000000001</v>
+      </c>
+      <c r="P15" s="61"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>0.10256999999999999</v>
       </c>
       <c r="B16" s="18">
         <v>0.10199999999999999</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
       <c r="E16" s="15"/>
       <c r="F16" s="4">
         <v>9.0000000000000006E-5</v>
@@ -1269,18 +1304,23 @@
       <c r="G16" s="4">
         <v>0.11</v>
       </c>
-      <c r="H16" s="48"/>
-      <c r="I16" s="50"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H16" s="49"/>
+      <c r="I16" s="51"/>
+      <c r="K16">
+        <f>AVERAGE(A60:A64)</f>
+        <v>24.986719999999998</v>
+      </c>
+      <c r="P16" s="61"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>0.10256999999999999</v>
       </c>
       <c r="B17" s="18">
         <v>0.10199999999999999</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
       <c r="E17" s="15"/>
       <c r="F17" s="4">
         <v>9.0000000000000006E-5</v>
@@ -1288,10 +1328,14 @@
       <c r="G17" s="4">
         <v>0.12</v>
       </c>
-      <c r="H17" s="48"/>
-      <c r="I17" s="51"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H17" s="49"/>
+      <c r="I17" s="52"/>
+      <c r="P17" s="61">
+        <f>SUM(F6:F10)/5</f>
+        <v>9.6000000000000016E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="14" t="s">
         <v>16</v>
@@ -1306,18 +1350,18 @@
       <c r="H18" s="35"/>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>1.0380799999999999</v>
       </c>
       <c r="B19" s="20">
         <v>1.0389999999999999</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="57" t="s">
-        <v>20</v>
+      <c r="D19" s="58" t="s">
+        <v>19</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="6">
@@ -1326,22 +1370,22 @@
       <c r="G19" s="6">
         <v>1.5</v>
       </c>
-      <c r="H19" s="40" t="s">
+      <c r="H19" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>1.0370900000000001</v>
       </c>
       <c r="B20" s="20">
         <v>1.0389999999999999</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
       <c r="E20" s="15"/>
       <c r="F20" s="6">
         <v>1.49E-3</v>
@@ -1349,18 +1393,18 @@
       <c r="G20" s="6">
         <v>1.51</v>
       </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="38"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H20" s="42"/>
+      <c r="I20" s="39"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>1.03634</v>
       </c>
       <c r="B21" s="20">
         <v>1.038</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
       <c r="E21" s="15"/>
       <c r="F21" s="6">
         <v>1.48E-3</v>
@@ -1368,18 +1412,18 @@
       <c r="G21" s="6">
         <v>1.51</v>
       </c>
-      <c r="H21" s="41"/>
-      <c r="I21" s="38"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H21" s="42"/>
+      <c r="I21" s="39"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>1.0361199999999999</v>
       </c>
       <c r="B22" s="20">
         <v>1.038</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
       <c r="E22" s="15"/>
       <c r="F22" s="6">
         <v>1.48E-3</v>
@@ -1387,18 +1431,18 @@
       <c r="G22" s="6">
         <v>1.5</v>
       </c>
-      <c r="H22" s="41"/>
-      <c r="I22" s="38"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H22" s="42"/>
+      <c r="I22" s="39"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>1.0357499999999999</v>
       </c>
       <c r="B23" s="20">
         <v>1.0369999999999999</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
       <c r="E23" s="15"/>
       <c r="F23" s="6">
         <v>1.49E-3</v>
@@ -1406,27 +1450,27 @@
       <c r="G23" s="6">
         <v>1.51</v>
       </c>
-      <c r="H23" s="42"/>
-      <c r="I23" s="38"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H23" s="43"/>
+      <c r="I23" s="39"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="20"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="57"/>
+      <c r="D24" s="58"/>
       <c r="E24" s="15"/>
       <c r="F24" s="10"/>
       <c r="G24" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H24" s="12"/>
-      <c r="I24" s="38"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I24" s="39"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="20"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="57"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="15"/>
       <c r="F25" s="6">
         <v>1.4400000000000001E-3</v>
@@ -1434,22 +1478,22 @@
       <c r="G25" s="6">
         <v>1462</v>
       </c>
-      <c r="H25" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" s="38"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H25" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="39"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>1.02965</v>
       </c>
       <c r="B26" s="20">
         <v>1.03</v>
       </c>
-      <c r="C26" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="57"/>
+      <c r="C26" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="58"/>
       <c r="E26" s="15"/>
       <c r="F26" s="6">
         <v>1.4300000000000001E-3</v>
@@ -1457,18 +1501,18 @@
       <c r="G26" s="6">
         <v>1461</v>
       </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="38"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H26" s="42"/>
+      <c r="I26" s="39"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>1.02959</v>
       </c>
       <c r="B27" s="20">
         <v>1.03</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
       <c r="E27" s="15"/>
       <c r="F27" s="6">
         <v>1.4300000000000001E-3</v>
@@ -1476,18 +1520,18 @@
       <c r="G27" s="6">
         <v>1462</v>
       </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="38"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H27" s="42"/>
+      <c r="I27" s="39"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>1.02963</v>
       </c>
       <c r="B28" s="20">
         <v>1.03</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
       <c r="E28" s="15"/>
       <c r="F28" s="6">
         <v>1.4400000000000001E-3</v>
@@ -1495,18 +1539,18 @@
       <c r="G28" s="6">
         <v>1462</v>
       </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="38"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H28" s="42"/>
+      <c r="I28" s="39"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>1.02965</v>
       </c>
       <c r="B29" s="20">
         <v>1.03</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
       <c r="E29" s="15"/>
       <c r="F29" s="6">
         <v>1.4400000000000001E-3</v>
@@ -1514,25 +1558,25 @@
       <c r="G29" s="6">
         <v>1461</v>
       </c>
-      <c r="H29" s="42"/>
-      <c r="I29" s="39"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H29" s="43"/>
+      <c r="I29" s="40"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>1.0296700000000001</v>
       </c>
       <c r="B30" s="20">
         <v>1.02</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
       <c r="E30" s="15"/>
       <c r="F30" s="35"/>
       <c r="G30" s="35"/>
       <c r="H30" s="35"/>
       <c r="I30" s="36"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="14" t="s">
         <v>16</v>
@@ -1547,18 +1591,18 @@
       <c r="H31" s="35"/>
       <c r="I31" s="36"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="22">
         <v>9.06</v>
       </c>
       <c r="B32" s="23">
         <v>9.08</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="45" t="s">
         <v>24</v>
-      </c>
-      <c r="D32" s="44" t="s">
-        <v>25</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="7">
@@ -1567,22 +1611,22 @@
       <c r="G32" s="7">
         <v>6.76</v>
       </c>
-      <c r="H32" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="I32" s="43" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H32" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>9.0585000000000004</v>
       </c>
       <c r="B33" s="23">
         <v>9.08</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
       <c r="E33" s="15"/>
       <c r="F33" s="7">
         <v>6.7299999999999999E-3</v>
@@ -1590,18 +1634,18 @@
       <c r="G33" s="7">
         <v>6.77</v>
       </c>
-      <c r="H33" s="44"/>
-      <c r="I33" s="43"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H33" s="45"/>
+      <c r="I33" s="44"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>9.0563000000000002</v>
       </c>
       <c r="B34" s="23">
         <v>9.08</v>
       </c>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
       <c r="E34" s="15"/>
       <c r="F34" s="7">
         <v>6.7299999999999999E-3</v>
@@ -1609,18 +1653,18 @@
       <c r="G34" s="7">
         <v>6.77</v>
       </c>
-      <c r="H34" s="44"/>
-      <c r="I34" s="43"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H34" s="45"/>
+      <c r="I34" s="44"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>9.0551999999999992</v>
       </c>
       <c r="B35" s="23">
         <v>9.08</v>
       </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="15"/>
       <c r="F35" s="7">
         <v>6.7400000000000003E-3</v>
@@ -1628,18 +1672,18 @@
       <c r="G35" s="7">
         <v>6.76</v>
       </c>
-      <c r="H35" s="44"/>
-      <c r="I35" s="43"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H35" s="45"/>
+      <c r="I35" s="44"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
         <v>9.0531000000000006</v>
       </c>
       <c r="B36" s="23">
         <v>9.07</v>
       </c>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
       <c r="E36" s="15"/>
       <c r="F36" s="7">
         <v>6.7400000000000003E-3</v>
@@ -1647,33 +1691,33 @@
       <c r="G36" s="7">
         <v>6.76</v>
       </c>
-      <c r="H36" s="44"/>
-      <c r="I36" s="43"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H36" s="45"/>
+      <c r="I36" s="44"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>9.0520999999999994</v>
       </c>
       <c r="B37" s="23">
         <v>9.07</v>
       </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
       <c r="E37" s="15"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="43"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F37" s="46"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="44"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <v>9.0515000000000008</v>
       </c>
       <c r="B38" s="23">
         <v>9.07</v>
       </c>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
         <v>6.7499999999999999E-3</v>
@@ -1681,20 +1725,20 @@
       <c r="G38" s="7">
         <v>6.8</v>
       </c>
-      <c r="H38" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="I38" s="43"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H38" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" s="44"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>9.0538000000000007</v>
       </c>
       <c r="B39" s="23">
         <v>9.06</v>
       </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
         <v>6.7600000000000004E-3</v>
@@ -1702,18 +1746,18 @@
       <c r="G39" s="7">
         <v>6.8</v>
       </c>
-      <c r="H39" s="44"/>
-      <c r="I39" s="43"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H39" s="45"/>
+      <c r="I39" s="44"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>9.0520999999999994</v>
       </c>
       <c r="B40" s="23">
         <v>9.06</v>
       </c>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
       <c r="E40" s="15"/>
       <c r="F40" s="7">
         <v>6.7600000000000004E-3</v>
@@ -1721,18 +1765,18 @@
       <c r="G40" s="7">
         <v>6.7</v>
       </c>
-      <c r="H40" s="44"/>
-      <c r="I40" s="43"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H40" s="45"/>
+      <c r="I40" s="44"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>9.0503</v>
       </c>
       <c r="B41" s="23">
         <v>9.06</v>
       </c>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
       <c r="E41" s="15"/>
       <c r="F41" s="7">
         <v>6.7499999999999999E-3</v>
@@ -1740,14 +1784,14 @@
       <c r="G41" s="7">
         <v>6.8</v>
       </c>
-      <c r="H41" s="44"/>
-      <c r="I41" s="43"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H41" s="45"/>
+      <c r="I41" s="44"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="24"/>
       <c r="B42" s="23"/>
       <c r="C42" s="7"/>
-      <c r="D42" s="44"/>
+      <c r="D42" s="45"/>
       <c r="E42" s="15"/>
       <c r="F42" s="7">
         <v>6.7499999999999999E-3</v>
@@ -1755,162 +1799,162 @@
       <c r="G42" s="7">
         <v>6.8</v>
       </c>
-      <c r="H42" s="44"/>
-      <c r="I42" s="43"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H42" s="45"/>
+      <c r="I42" s="44"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>9.0237999999999996</v>
       </c>
       <c r="B43" s="23">
         <v>9.09</v>
       </c>
-      <c r="C43" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="44"/>
+      <c r="C43" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="45"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
       <c r="I43" s="21"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>9.0236999999999998</v>
       </c>
       <c r="B44" s="23">
         <v>9.09</v>
       </c>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
       <c r="I44" s="21"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>9.0236000000000001</v>
       </c>
       <c r="B45" s="23">
         <v>9.09</v>
       </c>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
       <c r="I45" s="21"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <v>9.0235000000000003</v>
       </c>
       <c r="B46" s="23">
         <v>9.09</v>
       </c>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
       <c r="I46" s="21"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>9.0233000000000008</v>
       </c>
       <c r="B47" s="23">
         <v>9.09</v>
       </c>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
       <c r="I47" s="21"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="22">
         <v>9.0229999999999997</v>
       </c>
       <c r="B48" s="23">
         <v>9.09</v>
       </c>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
       <c r="I48" s="21"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
         <v>9.0228999999999999</v>
       </c>
       <c r="B49" s="23">
         <v>9.09</v>
       </c>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
       <c r="I49" s="21"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <v>9.0230999999999995</v>
       </c>
       <c r="B50" s="23">
         <v>9.09</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
       <c r="I50" s="21"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>9.0233000000000008</v>
       </c>
       <c r="B51" s="23">
         <v>9.09</v>
       </c>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
       <c r="I51" s="21"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>9.0230999999999995</v>
       </c>
       <c r="B52" s="23">
         <v>9.09</v>
       </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
       <c r="I52" s="21"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="14" t="s">
         <v>16</v>
@@ -1923,18 +1967,18 @@
       <c r="H53" s="15"/>
       <c r="I53" s="21"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="25">
         <v>24.005199999999999</v>
       </c>
       <c r="B54" s="26">
         <v>24</v>
       </c>
-      <c r="C54" s="58" t="s">
+      <c r="C54" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="59" t="s">
         <v>28</v>
-      </c>
-      <c r="D54" s="58" t="s">
-        <v>29</v>
       </c>
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
@@ -1942,148 +1986,148 @@
       <c r="H54" s="15"/>
       <c r="I54" s="21"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="25">
         <v>24.004300000000001</v>
       </c>
       <c r="B55" s="26">
         <v>24</v>
       </c>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
       <c r="I55" s="21"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="25">
         <v>24.003499999999999</v>
       </c>
       <c r="B56" s="26">
         <v>24</v>
       </c>
-      <c r="C56" s="58"/>
-      <c r="D56" s="58"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
       <c r="I56" s="21"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="25">
         <v>24.0031</v>
       </c>
       <c r="B57" s="26">
         <v>24</v>
       </c>
-      <c r="C57" s="58"/>
-      <c r="D57" s="58"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
       <c r="I57" s="21"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="27">
         <v>24.003</v>
       </c>
       <c r="B58" s="26">
         <v>24</v>
       </c>
-      <c r="C58" s="58"/>
-      <c r="D58" s="58"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
       <c r="I58" s="21"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="25"/>
       <c r="B59" s="26"/>
       <c r="C59" s="33"/>
-      <c r="D59" s="58"/>
+      <c r="D59" s="59"/>
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
       <c r="I59" s="21"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="25">
         <v>24.986799999999999</v>
       </c>
       <c r="B60" s="26">
         <v>24</v>
       </c>
-      <c r="C60" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="D60" s="58"/>
+      <c r="C60" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="59"/>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
       <c r="I60" s="21"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="25">
         <v>24.986699999999999</v>
       </c>
       <c r="B61" s="26">
         <v>24</v>
       </c>
-      <c r="C61" s="58"/>
-      <c r="D61" s="58"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
       <c r="H61" s="15"/>
       <c r="I61" s="21"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="25">
         <v>24.986599999999999</v>
       </c>
       <c r="B62" s="26">
         <v>24</v>
       </c>
-      <c r="C62" s="58"/>
-      <c r="D62" s="58"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="59"/>
       <c r="E62" s="15"/>
       <c r="F62" s="28"/>
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
       <c r="I62" s="21"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="25">
         <v>24.986799999999999</v>
       </c>
       <c r="B63" s="26">
         <v>24</v>
       </c>
-      <c r="C63" s="58"/>
-      <c r="D63" s="58"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="59"/>
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
       <c r="H63" s="15"/>
       <c r="I63" s="21"/>
     </row>
-    <row r="64" spans="1:9" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="29">
         <v>24.986699999999999</v>
       </c>
       <c r="B64" s="30">
         <v>24</v>
       </c>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="60"/>
       <c r="E64" s="31"/>
       <c r="F64" s="31"/>
       <c r="G64" s="31"/>

--- a/LABORATORIO/LABORATORIO 1/mediciones.xlsx
+++ b/LABORATORIO/LABORATORIO 1/mediciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\ME1\ME1\LABORATORIO\LABORATORIO 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CFD3AC-FF68-4149-9727-68A0A5ED2EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81739BDD-C89A-4335-9B53-2306EDFB1BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D6DC2A8B-5565-4027-8422-B352F38ECBBA}"/>
   </bookViews>
@@ -562,6 +562,46 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -581,9 +621,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -595,43 +632,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -958,42 +958,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="F3" s="56" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="F3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -1049,10 +1049,10 @@
       <c r="B6" s="18">
         <v>103.9</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="43" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="15"/>
@@ -1062,17 +1062,17 @@
       <c r="G6" s="4">
         <v>114</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="44" t="s">
         <v>15</v>
       </c>
       <c r="K6">
         <f>AVERAGE(A6:A10)</f>
         <v>0.10351999999999999</v>
       </c>
-      <c r="P6" s="61">
+      <c r="P6" s="38">
         <f>AVERAGE(F6:F10)</f>
         <v>9.6000000000000016E-5</v>
       </c>
@@ -1084,8 +1084,8 @@
       <c r="B7" s="18">
         <v>103.9</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="15"/>
       <c r="F7" s="34">
         <v>1E-4</v>
@@ -1093,13 +1093,13 @@
       <c r="G7" s="4">
         <v>115</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="51"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="45"/>
       <c r="K7">
         <f>AVERAGE(A13:A17)</f>
         <v>0.102474</v>
       </c>
-      <c r="P7" s="61">
+      <c r="P7" s="38">
         <f>AVERAGE(F13:F17)</f>
         <v>9.6000000000000016E-5</v>
       </c>
@@ -1111,8 +1111,8 @@
       <c r="B8" s="18">
         <v>103.9</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="15"/>
       <c r="F8" s="34">
         <v>1E-4</v>
@@ -1120,9 +1120,9 @@
       <c r="G8" s="4">
         <v>115</v>
       </c>
-      <c r="H8" s="49"/>
-      <c r="I8" s="51"/>
-      <c r="P8" s="61"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="45"/>
+      <c r="P8" s="38"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
@@ -1131,8 +1131,8 @@
       <c r="B9" s="18">
         <v>103.8</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="15"/>
       <c r="F9" s="4">
         <v>9.0000000000000006E-5</v>
@@ -1140,13 +1140,13 @@
       <c r="G9" s="4">
         <v>114</v>
       </c>
-      <c r="H9" s="49"/>
-      <c r="I9" s="51"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="45"/>
       <c r="K9">
         <f>AVERAGE(A19:A23)</f>
         <v>1.0366759999999999</v>
       </c>
-      <c r="P9" s="61">
+      <c r="P9" s="38">
         <f>AVERAGE(F19:F23)</f>
         <v>1.4860000000000001E-3</v>
       </c>
@@ -1158,8 +1158,8 @@
       <c r="B10" s="18">
         <v>103.8</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="15"/>
       <c r="F10" s="4">
         <v>9.0000000000000006E-5</v>
@@ -1167,13 +1167,13 @@
       <c r="G10" s="4">
         <v>115</v>
       </c>
-      <c r="H10" s="49"/>
-      <c r="I10" s="51"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="45"/>
       <c r="K10">
         <f>AVERAGE(A26:A30)</f>
         <v>1.0296380000000001</v>
       </c>
-      <c r="P10" s="61">
+      <c r="P10" s="38">
         <f>AVERAGE(F25:F29)</f>
         <v>1.4360000000000002E-3</v>
       </c>
@@ -1182,13 +1182,13 @@
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="49"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="15"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="51"/>
-      <c r="P11" s="61"/>
+      <c r="I11" s="45"/>
+      <c r="P11" s="38"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
@@ -1196,19 +1196,19 @@
         <v>16</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="49"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="15"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="51"/>
+      <c r="I12" s="45"/>
       <c r="K12" s="37">
         <f>AVERAGE(A32:A41)</f>
         <v>9.0542899999999999</v>
       </c>
-      <c r="P12" s="61">
+      <c r="P12" s="38">
         <f>AVERAGE(F32:F36)</f>
         <v>6.7360000000000007E-3</v>
       </c>
@@ -1220,10 +1220,10 @@
       <c r="B13" s="18">
         <v>0.10199999999999999</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="49"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="15"/>
       <c r="F13" s="34">
         <v>1E-4</v>
@@ -1231,15 +1231,15 @@
       <c r="G13" s="4">
         <v>0.12</v>
       </c>
-      <c r="H13" s="49" t="s">
+      <c r="H13" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="51"/>
+      <c r="I13" s="45"/>
       <c r="K13">
         <f>AVERAGE(A43:A52)</f>
         <v>9.0233300000000014</v>
       </c>
-      <c r="P13" s="61">
+      <c r="P13" s="38">
         <f>AVERAGE(F38:F42)</f>
         <v>6.7540000000000005E-3</v>
       </c>
@@ -1251,8 +1251,8 @@
       <c r="B14" s="18">
         <v>0.10199999999999999</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="15"/>
       <c r="F14" s="34">
         <v>1E-4</v>
@@ -1260,9 +1260,9 @@
       <c r="G14" s="4">
         <v>0.12</v>
       </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="51"/>
-      <c r="P14" s="61"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="45"/>
+      <c r="P14" s="38"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
@@ -1271,8 +1271,8 @@
       <c r="B15" s="18">
         <v>0.10199999999999999</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="15"/>
       <c r="F15" s="34">
         <v>1E-4</v>
@@ -1280,13 +1280,13 @@
       <c r="G15" s="4">
         <v>0.11</v>
       </c>
-      <c r="H15" s="49"/>
-      <c r="I15" s="51"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="45"/>
       <c r="K15">
         <f>AVERAGE(A54:A58)</f>
         <v>24.003820000000001</v>
       </c>
-      <c r="P15" s="61"/>
+      <c r="P15" s="38"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
@@ -1295,8 +1295,8 @@
       <c r="B16" s="18">
         <v>0.10199999999999999</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
       <c r="E16" s="15"/>
       <c r="F16" s="4">
         <v>9.0000000000000006E-5</v>
@@ -1304,13 +1304,13 @@
       <c r="G16" s="4">
         <v>0.11</v>
       </c>
-      <c r="H16" s="49"/>
-      <c r="I16" s="51"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="45"/>
       <c r="K16">
         <f>AVERAGE(A60:A64)</f>
         <v>24.986719999999998</v>
       </c>
-      <c r="P16" s="61"/>
+      <c r="P16" s="38"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
@@ -1319,8 +1319,8 @@
       <c r="B17" s="18">
         <v>0.10199999999999999</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="15"/>
       <c r="F17" s="4">
         <v>9.0000000000000006E-5</v>
@@ -1328,9 +1328,9 @@
       <c r="G17" s="4">
         <v>0.12</v>
       </c>
-      <c r="H17" s="49"/>
-      <c r="I17" s="52"/>
-      <c r="P17" s="61">
+      <c r="H17" s="43"/>
+      <c r="I17" s="46"/>
+      <c r="P17" s="38">
         <f>SUM(F6:F10)/5</f>
         <v>9.6000000000000016E-5</v>
       </c>
@@ -1357,10 +1357,10 @@
       <c r="B19" s="20">
         <v>1.0389999999999999</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="39" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="15"/>
@@ -1370,10 +1370,10 @@
       <c r="G19" s="6">
         <v>1.5</v>
       </c>
-      <c r="H19" s="41" t="s">
+      <c r="H19" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="38" t="s">
+      <c r="I19" s="52" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1384,8 +1384,8 @@
       <c r="B20" s="20">
         <v>1.0389999999999999</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="15"/>
       <c r="F20" s="6">
         <v>1.49E-3</v>
@@ -1393,8 +1393,8 @@
       <c r="G20" s="6">
         <v>1.51</v>
       </c>
-      <c r="H20" s="42"/>
-      <c r="I20" s="39"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="53"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
@@ -1403,8 +1403,8 @@
       <c r="B21" s="20">
         <v>1.038</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="15"/>
       <c r="F21" s="6">
         <v>1.48E-3</v>
@@ -1412,8 +1412,8 @@
       <c r="G21" s="6">
         <v>1.51</v>
       </c>
-      <c r="H21" s="42"/>
-      <c r="I21" s="39"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="53"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
@@ -1422,8 +1422,8 @@
       <c r="B22" s="20">
         <v>1.038</v>
       </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="15"/>
       <c r="F22" s="6">
         <v>1.48E-3</v>
@@ -1431,8 +1431,8 @@
       <c r="G22" s="6">
         <v>1.5</v>
       </c>
-      <c r="H22" s="42"/>
-      <c r="I22" s="39"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="53"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
@@ -1441,8 +1441,8 @@
       <c r="B23" s="20">
         <v>1.0369999999999999</v>
       </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="15"/>
       <c r="F23" s="6">
         <v>1.49E-3</v>
@@ -1450,27 +1450,27 @@
       <c r="G23" s="6">
         <v>1.51</v>
       </c>
-      <c r="H23" s="43"/>
-      <c r="I23" s="39"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="53"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="20"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="58"/>
+      <c r="D24" s="39"/>
       <c r="E24" s="15"/>
       <c r="F24" s="10"/>
       <c r="G24" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H24" s="12"/>
-      <c r="I24" s="39"/>
+      <c r="I24" s="53"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="20"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="58"/>
+      <c r="D25" s="39"/>
       <c r="E25" s="15"/>
       <c r="F25" s="6">
         <v>1.4400000000000001E-3</v>
@@ -1478,10 +1478,10 @@
       <c r="G25" s="6">
         <v>1462</v>
       </c>
-      <c r="H25" s="41" t="s">
+      <c r="H25" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="39"/>
+      <c r="I25" s="53"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
@@ -1490,10 +1490,10 @@
       <c r="B26" s="20">
         <v>1.03</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="58"/>
+      <c r="D26" s="39"/>
       <c r="E26" s="15"/>
       <c r="F26" s="6">
         <v>1.4300000000000001E-3</v>
@@ -1501,8 +1501,8 @@
       <c r="G26" s="6">
         <v>1461</v>
       </c>
-      <c r="H26" s="42"/>
-      <c r="I26" s="39"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="53"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
@@ -1511,8 +1511,8 @@
       <c r="B27" s="20">
         <v>1.03</v>
       </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
       <c r="E27" s="15"/>
       <c r="F27" s="6">
         <v>1.4300000000000001E-3</v>
@@ -1520,8 +1520,8 @@
       <c r="G27" s="6">
         <v>1462</v>
       </c>
-      <c r="H27" s="42"/>
-      <c r="I27" s="39"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="53"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
@@ -1530,8 +1530,8 @@
       <c r="B28" s="20">
         <v>1.03</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
       <c r="E28" s="15"/>
       <c r="F28" s="6">
         <v>1.4400000000000001E-3</v>
@@ -1539,8 +1539,8 @@
       <c r="G28" s="6">
         <v>1462</v>
       </c>
-      <c r="H28" s="42"/>
-      <c r="I28" s="39"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="53"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
@@ -1549,8 +1549,8 @@
       <c r="B29" s="20">
         <v>1.03</v>
       </c>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="15"/>
       <c r="F29" s="6">
         <v>1.4400000000000001E-3</v>
@@ -1558,8 +1558,8 @@
       <c r="G29" s="6">
         <v>1461</v>
       </c>
-      <c r="H29" s="43"/>
-      <c r="I29" s="40"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="54"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
@@ -1568,8 +1568,8 @@
       <c r="B30" s="20">
         <v>1.02</v>
       </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
       <c r="E30" s="15"/>
       <c r="F30" s="35"/>
       <c r="G30" s="35"/>
@@ -1598,10 +1598,10 @@
       <c r="B32" s="23">
         <v>9.08</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="40" t="s">
         <v>24</v>
       </c>
       <c r="E32" s="15"/>
@@ -1611,10 +1611,10 @@
       <c r="G32" s="7">
         <v>6.76</v>
       </c>
-      <c r="H32" s="45" t="s">
+      <c r="H32" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="44" t="s">
+      <c r="I32" s="58" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1625,8 +1625,8 @@
       <c r="B33" s="23">
         <v>9.08</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
       <c r="E33" s="15"/>
       <c r="F33" s="7">
         <v>6.7299999999999999E-3</v>
@@ -1634,8 +1634,8 @@
       <c r="G33" s="7">
         <v>6.77</v>
       </c>
-      <c r="H33" s="45"/>
-      <c r="I33" s="44"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="58"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
@@ -1644,8 +1644,8 @@
       <c r="B34" s="23">
         <v>9.08</v>
       </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
       <c r="E34" s="15"/>
       <c r="F34" s="7">
         <v>6.7299999999999999E-3</v>
@@ -1653,8 +1653,8 @@
       <c r="G34" s="7">
         <v>6.77</v>
       </c>
-      <c r="H34" s="45"/>
-      <c r="I34" s="44"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="58"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
@@ -1663,8 +1663,8 @@
       <c r="B35" s="23">
         <v>9.08</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
       <c r="E35" s="15"/>
       <c r="F35" s="7">
         <v>6.7400000000000003E-3</v>
@@ -1672,8 +1672,8 @@
       <c r="G35" s="7">
         <v>6.76</v>
       </c>
-      <c r="H35" s="45"/>
-      <c r="I35" s="44"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="58"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
@@ -1682,8 +1682,8 @@
       <c r="B36" s="23">
         <v>9.07</v>
       </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
       <c r="E36" s="15"/>
       <c r="F36" s="7">
         <v>6.7400000000000003E-3</v>
@@ -1691,8 +1691,8 @@
       <c r="G36" s="7">
         <v>6.76</v>
       </c>
-      <c r="H36" s="45"/>
-      <c r="I36" s="44"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="58"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
@@ -1701,13 +1701,13 @@
       <c r="B37" s="23">
         <v>9.07</v>
       </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
       <c r="E37" s="15"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="44"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="58"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
@@ -1716,8 +1716,8 @@
       <c r="B38" s="23">
         <v>9.07</v>
       </c>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
       <c r="E38" s="15"/>
       <c r="F38" s="7">
         <v>6.7499999999999999E-3</v>
@@ -1725,10 +1725,10 @@
       <c r="G38" s="7">
         <v>6.8</v>
       </c>
-      <c r="H38" s="45" t="s">
+      <c r="H38" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="I38" s="44"/>
+      <c r="I38" s="58"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
@@ -1737,8 +1737,8 @@
       <c r="B39" s="23">
         <v>9.06</v>
       </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
         <v>6.7600000000000004E-3</v>
@@ -1746,8 +1746,8 @@
       <c r="G39" s="7">
         <v>6.8</v>
       </c>
-      <c r="H39" s="45"/>
-      <c r="I39" s="44"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="58"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
@@ -1756,8 +1756,8 @@
       <c r="B40" s="23">
         <v>9.06</v>
       </c>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
       <c r="E40" s="15"/>
       <c r="F40" s="7">
         <v>6.7600000000000004E-3</v>
@@ -1765,8 +1765,8 @@
       <c r="G40" s="7">
         <v>6.7</v>
       </c>
-      <c r="H40" s="45"/>
-      <c r="I40" s="44"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="58"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
@@ -1775,8 +1775,8 @@
       <c r="B41" s="23">
         <v>9.06</v>
       </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
       <c r="E41" s="15"/>
       <c r="F41" s="7">
         <v>6.7499999999999999E-3</v>
@@ -1784,14 +1784,14 @@
       <c r="G41" s="7">
         <v>6.8</v>
       </c>
-      <c r="H41" s="45"/>
-      <c r="I41" s="44"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="58"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="24"/>
       <c r="B42" s="23"/>
       <c r="C42" s="7"/>
-      <c r="D42" s="45"/>
+      <c r="D42" s="40"/>
       <c r="E42" s="15"/>
       <c r="F42" s="7">
         <v>6.7499999999999999E-3</v>
@@ -1799,8 +1799,8 @@
       <c r="G42" s="7">
         <v>6.8</v>
       </c>
-      <c r="H42" s="45"/>
-      <c r="I42" s="44"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="58"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
@@ -1809,10 +1809,10 @@
       <c r="B43" s="23">
         <v>9.09</v>
       </c>
-      <c r="C43" s="45" t="s">
+      <c r="C43" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="45"/>
+      <c r="D43" s="40"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
@@ -1826,8 +1826,8 @@
       <c r="B44" s="23">
         <v>9.09</v>
       </c>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
@@ -1841,8 +1841,8 @@
       <c r="B45" s="23">
         <v>9.09</v>
       </c>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
@@ -1856,8 +1856,8 @@
       <c r="B46" s="23">
         <v>9.09</v>
       </c>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
@@ -1871,8 +1871,8 @@
       <c r="B47" s="23">
         <v>9.09</v>
       </c>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
@@ -1886,8 +1886,8 @@
       <c r="B48" s="23">
         <v>9.09</v>
       </c>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
@@ -1901,8 +1901,8 @@
       <c r="B49" s="23">
         <v>9.09</v>
       </c>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
@@ -1916,8 +1916,8 @@
       <c r="B50" s="23">
         <v>9.09</v>
       </c>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
@@ -1931,8 +1931,8 @@
       <c r="B51" s="23">
         <v>9.09</v>
       </c>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
@@ -1946,8 +1946,8 @@
       <c r="B52" s="23">
         <v>9.09</v>
       </c>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
@@ -1974,10 +1974,10 @@
       <c r="B54" s="26">
         <v>24</v>
       </c>
-      <c r="C54" s="59" t="s">
+      <c r="C54" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D54" s="59" t="s">
+      <c r="D54" s="41" t="s">
         <v>28</v>
       </c>
       <c r="E54" s="15"/>
@@ -1993,8 +1993,8 @@
       <c r="B55" s="26">
         <v>24</v>
       </c>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
@@ -2008,8 +2008,8 @@
       <c r="B56" s="26">
         <v>24</v>
       </c>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
@@ -2023,8 +2023,8 @@
       <c r="B57" s="26">
         <v>24</v>
       </c>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
@@ -2038,8 +2038,8 @@
       <c r="B58" s="26">
         <v>24</v>
       </c>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
@@ -2050,7 +2050,7 @@
       <c r="A59" s="25"/>
       <c r="B59" s="26"/>
       <c r="C59" s="33"/>
-      <c r="D59" s="59"/>
+      <c r="D59" s="41"/>
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
@@ -2064,10 +2064,10 @@
       <c r="B60" s="26">
         <v>24</v>
       </c>
-      <c r="C60" s="59" t="s">
+      <c r="C60" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D60" s="59"/>
+      <c r="D60" s="41"/>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
@@ -2081,8 +2081,8 @@
       <c r="B61" s="26">
         <v>24</v>
       </c>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
@@ -2096,8 +2096,8 @@
       <c r="B62" s="26">
         <v>24</v>
       </c>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="41"/>
       <c r="E62" s="15"/>
       <c r="F62" s="28"/>
       <c r="G62" s="15"/>
@@ -2111,8 +2111,8 @@
       <c r="B63" s="26">
         <v>24</v>
       </c>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
@@ -2126,8 +2126,8 @@
       <c r="B64" s="30">
         <v>24</v>
       </c>
-      <c r="C64" s="60"/>
-      <c r="D64" s="60"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
       <c r="E64" s="31"/>
       <c r="F64" s="31"/>
       <c r="G64" s="31"/>
@@ -2136,6 +2136,22 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="I19:I29"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="I32:I42"/>
+    <mergeCell ref="H38:H42"/>
+    <mergeCell ref="H32:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="H13:H17"/>
+    <mergeCell ref="I6:I17"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="D6:D17"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C13:C17"/>
     <mergeCell ref="D19:D30"/>
     <mergeCell ref="C43:C52"/>
     <mergeCell ref="D32:D52"/>
@@ -2145,22 +2161,6 @@
     <mergeCell ref="C19:C23"/>
     <mergeCell ref="C26:C30"/>
     <mergeCell ref="C32:C41"/>
-    <mergeCell ref="H13:H17"/>
-    <mergeCell ref="I6:I17"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="H6:H10"/>
-    <mergeCell ref="D6:D17"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="I19:I29"/>
-    <mergeCell ref="H25:H29"/>
-    <mergeCell ref="H19:H23"/>
-    <mergeCell ref="I32:I42"/>
-    <mergeCell ref="H38:H42"/>
-    <mergeCell ref="H32:H36"/>
-    <mergeCell ref="F37:H37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
